--- a/biology/Médecine/Vincenzo_Bianchini/Vincenzo_Bianchini.xlsx
+++ b/biology/Médecine/Vincenzo_Bianchini/Vincenzo_Bianchini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vincenzo Bianchini, né le 29 novembre 1903 à Viterbe dans le Latium et mort en 2000 à Genève, est un médecin, un peintre, un sculpteur, un écrivain, un poète et un philosophe italien.
 </t>
@@ -511,16 +523,18 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après des études classiques et de musique à Viterbe, Vincenzo Bianchini s'inscrit à la Faculté de science politique de l'université de Florence, qu'il laissa rapidement pour celle de médecine à Rome.
-Marié et diplômé il est réformé par l'armée mais part quand même comme volontaire pour la guerre d'Éthiopie (1935-1937) comme médecin[1].
-Au retour, il est médecin assigné pour la municipalité de Rome, pour Fiumicino, et pour le quartier de Caffarelletta où il est confronté à la misère. Durant la Seconde Guerre mondiale, il participe à la résistance antifasciste[1].
+Marié et diplômé il est réformé par l'armée mais part quand même comme volontaire pour la guerre d'Éthiopie (1935-1937) comme médecin.
+Au retour, il est médecin assigné pour la municipalité de Rome, pour Fiumicino, et pour le quartier de Caffarelletta où il est confronté à la misère. Durant la Seconde Guerre mondiale, il participe à la résistance antifasciste.
 Par la suite il exerce aussi dans les mines d'Ingurtosu, en Sardaigne.
-En 1951, il part pour l'Iran en participant à un projet italien d'aide aux populations persanes et pendant plus de dix ans, il se consacre à l'assistance dans des villages des régions les plus reculées du pays[1] en organisant entre autres un petit hôpital dans le Kurdistan, à Sericiabad, où il vit quelques années[2].
+En 1951, il part pour l'Iran en participant à un projet italien d'aide aux populations persanes et pendant plus de dix ans, il se consacre à l'assistance dans des villages des régions les plus reculées du pays en organisant entre autres un petit hôpital dans le Kurdistan, à Sericiabad, où il vit quelques années.
 Par mandat de l'OMS, il part en mission au Congo juste après la guerre civile de 1961 et il y reste jusqu'en 1965-1966.
-En 1966, il exerce en Algérie puis il retourne en Iran où il continue son œuvre de médecin et d'artiste jusqu'à la révolution de Khomeini en 1978[1].
-Le documentaire From Tehran to Rome. A Journey through Art[3] retraçant sa vie a été projeté à Téhéran dans la résidence de l'ambassadeur italien en 2022[4].
+En 1966, il exerce en Algérie puis il retourne en Iran où il continue son œuvre de médecin et d'artiste jusqu'à la révolution de Khomeini en 1978.
+Le documentaire From Tehran to Rome. A Journey through Art retraçant sa vie a été projeté à Téhéran dans la résidence de l'ambassadeur italien en 2022.
 </t>
         </is>
       </c>
@@ -551,8 +565,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Écrits
-Comme écrivain et poète, Vincenzo Bianchini a publié de nombreux ouvrages en italien et anglais :
+          <t>Écrits</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Comme écrivain et poète, Vincenzo Bianchini a publié de nombreux ouvrages en italien et anglais :
 Medico di battaglione (Médecin de bataillon), récit, 1939, prix de l'Académie d'Italie
 Acqua dei diavolo (Eaux du diable), récit, 1964
 Pietre di Arande (Pierres d'Arande), poèmes, 1972
@@ -562,9 +581,43 @@
 L'uomo e la sua casa (L'homme et sa maison)
 Onomatopeica dei sudore (Onomatopée de la sueur)
 Congo dell'apocalisse (Congo de l'apocalypse)
-Estasi (Extase), roman.
-Peintures
-Expositions collectives
+Estasi (Extase), roman.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Vincenzo_Bianchini</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vincenzo_Bianchini</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Productions artistiques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Peintures</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Expositions collectives
 Rome - Palais des Arts - 1938
 Rome - Palais des Expositions - 1942
 Téhéran - Foire internationale - 1965
